--- a/Практическая работа 10.xlsx
+++ b/Практическая работа 10.xlsx
@@ -157,9 +157,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -176,6 +173,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,7 +505,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -513,7 +513,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -521,7 +521,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -533,272 +533,272 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>1250</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>(C10-C3)*C4</f>
         <v>110.5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f>C10*C5</f>
         <v>37.5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f>D10-E10</f>
         <v>73</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>C10-F10</f>
         <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>1500</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>(C11-C3)*C4</f>
         <v>143</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f>C11*C5</f>
         <v>45</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" ref="F11:F17" si="0">D11-E11</f>
         <v>98</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" ref="G11:G17" si="1">C11-F11</f>
         <v>1402</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>1750</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>(C12-C3)*C4</f>
         <v>175.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>C12*C5</f>
         <v>52.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="1"/>
         <v>1627</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1862</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f>(C13-C3)*C4</f>
         <v>190.06</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>C13*C5</f>
         <v>55.86</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>1727.8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>2000</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f>(C14-C3)*C4</f>
         <v>208</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>C14*C5</f>
         <v>60</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="1"/>
         <v>1852</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2250</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f>(C15-C3)*C4</f>
         <v>240.5</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f>C15*C5</f>
         <v>67.5</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>2077</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2750</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f>(C16-C3)*C4</f>
         <v>305.5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f>C16*C5</f>
         <v>82.5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="1"/>
         <v>2527</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>3450</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f>(C17-C3)*C4</f>
         <v>396.5</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f>C17*C5</f>
         <v>103.5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>3157</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>SUM(C10:C17)</f>
         <v>16812</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" ref="D18:G18" si="2">SUM(D10:D17)</f>
         <v>1769.56</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="2"/>
         <v>504.36</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>1265.2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>15546.8</v>
       </c>
